--- a/back-end/results/literature_summary.xlsx
+++ b/back-end/results/literature_summary.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>本研究调查了街道照明特性（即高度、灯具类型（HPS、LED）、照度以及与路灯的距离）对多种物种（15种）活动的影响，特别是根据它们的飞行特性。研究比较了在地中海保护区内，不同街道照明特性条件下，蝙蝠物种在照明和暗处的活动。研究发现，照明对杂乱和空中蝙蝠物种的活动有对比效果，对杂乱物种（90%的蝙蝠活动减少）有强烈的负面影响，其中一半是严格受保护的。照度特别影响它们的活动。研究提出了减少夜间光污染影响的可能管理选项，包括通过修改路灯的高度、照明强度、光谱组成来减少光侵入，移除光源或至少减少照度，似乎是最有效的选项。由于对高度受保护物种的强烈影响，研究强调了在保护区特别是需要管理照明的必要性。</t>
+          <t>本研究调查了街道照明特征（如高度、灯具类型（HPS, LED）、照度以及与街道照明的距离）对多种物种（15种）活动的影响，特别是根据它们的飞行特征。研究比较了在地中海保护区内，不同特征的街道照明下以及在距离街道照明不到200米的树篱中，蝙蝠物种在照明和黑暗条件下的活动。研究发现，照明对杂乱和空中蝙蝠物种的活动有对比效果，对杂乱物种（90%的蝙蝠活动减少）有强烈的负面影响，其中一半是严格受保护的。照度特别影响它们的活动。研究提出了减少夜间光污染影响的可能管理选项（通过修改街道照明的高度、照明强度、光谱组成来减少光侵入），移除光源或至少减少照度似乎是最有效的选项。由于对高度受保护物种的强烈影响，研究强调了在保护区特别是需要管理照明的必要性。</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>本文研究了COVID-19大流行引起的旅行限制对非洲保护区周围经济活动的影响，特别是通过夜光数据作为经济活动的代理指标来评估变化。研究发现，8427个保护区中有75%的区域在不同程度上显示出光线强度的减少，表明与旅游相关的经济活动有所减少。研究结果表明，封锁措施在控制大流行和经济损失之间存在权衡，并且夜光数据可以作为评估经济活动变化的低成本、高效方法。</t>
+          <t>该研究探讨了COVID-19大流行对非洲保护区周围经济活动的影响，特别是通过夜间灯光数据来评估旅游限制导致的经济活动变化。研究发现，由于COVID-19导致的旅游限制，75%的保护区内的夜间灯光强度有所下降，表明与旅游相关的经济活动有所减少。研究使用了全球夜间灯光数据作为经济活动的代理指标，比较了2019年4月和2020年4月的数据，以评估大流行期间的变化。研究结果表明，封锁措施在控制大流行和经济损失之间存在权衡，并且强调了在大流行恢复期间，使用空间显式数据来指导决策和优先恢复工作的重要性。</t>
         </is>
       </c>
     </row>

--- a/back-end/results/literature_summary.xlsx
+++ b/back-end/results/literature_summary.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>研究内容</t>
+          <t>研究方法</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>本研究调查了街道照明特征（如高度、灯具类型（HPS, LED）、照度以及与街道照明的距离）对多种物种（15种）活动的影响，特别是根据它们的飞行特征。研究比较了在地中海保护区内，不同特征的街道照明下以及在距离街道照明不到200米的树篱中，蝙蝠物种在照明和黑暗条件下的活动。研究发现，照明对杂乱和空中蝙蝠物种的活动有对比效果，对杂乱物种（90%的蝙蝠活动减少）有强烈的负面影响，其中一半是严格受保护的。照度特别影响它们的活动。研究提出了减少夜间光污染影响的可能管理选项（通过修改街道照明的高度、照明强度、光谱组成来减少光侵入），移除光源或至少减少照度似乎是最有效的选项。由于对高度受保护物种的强烈影响，研究强调了在保护区特别是需要管理照明的必要性。</t>
+          <t>实验研究，包括在地中海保护区内选择28个研究点，测量街灯和树篱下的蝙蝠活动。使用Song Meter SM2BAT记录超声波，并利用TADARIDA软件进行叫声检测和分类。同时，研究还考虑了街灯的高度、类型（HPS或LED）、亮度（0.1-51 lux）和距离（7-192米）等多个街灯特征对不同种类蝙蝠活动的影响。</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>该研究探讨了COVID-19大流行对非洲保护区周围经济活动的影响，特别是通过夜间灯光数据来评估旅游限制导致的经济活动变化。研究发现，由于COVID-19导致的旅游限制，75%的保护区内的夜间灯光强度有所下降，表明与旅游相关的经济活动有所减少。研究使用了全球夜间灯光数据作为经济活动的代理指标，比较了2019年4月和2020年4月的数据，以评估大流行期间的变化。研究结果表明，封锁措施在控制大流行和经济损失之间存在权衡，并且强调了在大流行恢复期间，使用空间显式数据来指导决策和优先恢复工作的重要性。</t>
+          <t>本研究使用了两种全球可用的数据集：世界保护区数据库（WDPA）和每日VIIRS VNP46A1产品，即夜间灯光数据源。WDPA提供了保护区的边界、命名和其他信息。对于夜间灯光数据，使用了VIIRS的DNB辐射带（DNB_At_Sensor_Radian ce_500 m）创建了2019年4月和2020年4月的平均夜间观测合成图。使用了质量标志带QF_Clound、QF_Cirrus和QF_DNB来过滤低质量像素，并使用Moon_Illumination_Fraction带中的月光信息调整月光照射分数，以减少月球效应。此外，研究还使用了配对Wilcox测试来确认2019年4月和2020年4月间在非洲保护区的夜间灯光变化在统计上是显著的。</t>
         </is>
       </c>
     </row>
